--- a/src/test/resources/DataWorkbook/Edge/TestData.xlsx
+++ b/src/test/resources/DataWorkbook/Edge/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANJEEV\Downloads\cucumber-jvm-xls-master\Cucumber-TestNG\src\test\resources\DataWorkbook\Chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANJEEV\IdeaProjects\Cucumber-TestNG\src\test\resources\DataWorkbook\Chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39726A-216C-4535-9434-4AB0DD481203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C25AC-8E04-4830-B1C1-F20351FA382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4B8FDF17-7617-456D-B4E6-3BF46F4D2DD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4B8FDF17-7617-456D-B4E6-3BF46F4D2DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Scenario</t>
   </si>
@@ -51,10 +51,13 @@
     <t>Scenario2</t>
   </si>
   <si>
-    <t>padmajith</t>
-  </si>
-  <si>
     <t>rakbank123</t>
+  </si>
+  <si>
+    <t>9569992716</t>
+  </si>
+  <si>
+    <t>aveejnas</t>
   </si>
 </sst>
 </file>
@@ -90,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +413,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,22 +433,22 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
